--- a/DatasetProject.xlsx
+++ b/DatasetProject.xlsx
@@ -2,32 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CAF76-37C7-4CDC-BB07-8FA3684962DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5AC65-45AD-49D6-9B4B-9D3AC5B7BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EA11005-F366-42C0-9F59-D42018D24277}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2EA11005-F366-42C0-9F59-D42018D24277}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivots" sheetId="4" r:id="rId1"/>
-    <sheet name="Dataset " sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Dataset " sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Dataset '!$A$1:$H$51</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Dataset '!$A$1:$H$51</definedName>
     <definedName name="Slicer_Topic">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -380,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +579,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -739,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -763,10 +770,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -812,37 +820,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -930,514 +908,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1544,6 +1014,224 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -2812,6 +2500,1704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DatasetProject.xlsx]Pivots!TopicwiseTotal</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Likes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC76-4073-BF7C-97A9F6B1A839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC76-4073-BF7C-97A9F6B1A839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC76-4073-BF7C-97A9F6B1A839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="328129407"/>
+        <c:axId val="328165407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="328129407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="328165407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328129407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DatasetProject.xlsx]Pivots!TopicwiseTotal</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Likes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC6-4AA7-9E57-864D7643DE7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DC6-4AA7-9E57-864D7643DE7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Motivational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storytelling</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DC6-4AA7-9E57-864D7643DE7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="328129407"/>
+        <c:axId val="328165407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="328129407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="328165407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328129407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2853,6 +4239,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3913,20 +5379,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>649357</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>3314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>265044</xdr:colOff>
+      <xdr:colOff>679939</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4063,6 +6535,299 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55683</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1055075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BEEF59-6FF8-1D93-8F5A-B1A6F8CE4E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98149</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Topic 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1881D6BA-7EF7-4831-A51F-6B690E1E71B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Topic 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1485900" y="3688080"/>
+              <a:ext cx="1699260" cy="2445109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335759</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65622</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B335564E-CDD9-4C84-BE3B-61C7CC15373F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95B6AC6-8940-B79E-0F3C-9A3A6EFA5E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="381000"/>
+          <a:ext cx="1211580" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!C101">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BAD01A-6986-0935-4545-3E60AFD4BEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="495300"/>
+          <a:ext cx="624840" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{16EFD4BC-3157-49B8-B3F5-B3F5E133C503}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>7382</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5341,7 +8106,1135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73539F33-9947-4CB7-90CE-8FAAEC535052}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C85D2EE-1006-4E14-980B-26185963B665}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A89:D97" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Likes" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Comments" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Shares" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="14">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="3" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="15">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="3" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="16">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67F21F0C-527A-4770-A413-3658AB2D6662}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A78:B86" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Engagement Score" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat type="all" priority="17">
+      <pivotAreas count="1">
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="3" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73539F33-9947-4CB7-90CE-8FAAEC535052}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A100:C117" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -5898,6 +9791,29 @@
     <dataField name="Sum of Engagement Score" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+            <reference field="13" count="1" selected="0">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -5916,29 +9832,6 @@
             </reference>
             <reference field="13" count="1" selected="0">
               <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-            <reference field="13" count="1" selected="0">
-              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -5977,8 +9870,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEE823E1-FCEE-49FD-8477-6FC887F473E4}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEE823E1-FCEE-49FD-8477-6FC887F473E4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A24:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6046,7 +9939,18 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="369">
         <item sd="0" x="0"/>
@@ -6605,7 +10509,7 @@
     <dataField name="Sum of Engagement Score" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="28">
+    <conditionalFormat priority="26">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -6630,7 +10534,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="26">
+    <conditionalFormat priority="28">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -6668,8 +10572,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38C637FC-BD63-42AC-9652-5EC0F4A5DAD6}" name="Top3 topic" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38C637FC-BD63-42AC-9652-5EC0F4A5DAD6}" name="Top3 topic" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7166,10 +11070,10 @@
     <dataField name="Sum of Engagement Score" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="80">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7194,8 +11098,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2620E882-AEF7-49E0-AC8C-28F89C86E799}" name="TopicwiseTotal" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2620E882-AEF7-49E0-AC8C-28F89C86E799}" name="TopicwiseTotal" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7716,1134 +11620,62 @@
     <dataField name="Sum of Comments" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Sum of Shares" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C85D2EE-1006-4E14-980B-26185963B665}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A89:D97" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Likes" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Comments" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Shares" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="16">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="15">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="3" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="14">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="3" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67F21F0C-527A-4770-A413-3658AB2D6662}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A78:B86" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Engagement Score" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat type="all" priority="17">
-      <pivotAreas count="1">
-        <pivotArea fieldPosition="0">
-          <references count="1">
-            <reference field="3" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8907,27 +11739,33 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Topic 1" xr10:uid="{71320558-14C0-4330-8C9E-DABA4591F9B8}" cache="Slicer_Topic" caption="Topic" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{043A9705-DBE8-48AC-A194-B36255D07E5D}" name="Dataset" displayName="Dataset" ref="A1:L51" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{38AFE430-F035-4DFF-B92D-9F6819FA3C1E}" uniqueName="1" name="Post ID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8EA1970D-C103-435E-BC65-49D1E8E26810}" uniqueName="2" name="Platform" queryTableFieldId="2" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{78AF9CA3-6266-40DF-B555-BAE10E5DC0B5}" uniqueName="3" name="Post Type" queryTableFieldId="3" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{C838EF7D-3DC0-4520-9A00-0547CE6BBA2E}" uniqueName="4" name="Topic" queryTableFieldId="4" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{8EA1970D-C103-435E-BC65-49D1E8E26810}" uniqueName="2" name="Platform" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{78AF9CA3-6266-40DF-B555-BAE10E5DC0B5}" uniqueName="3" name="Post Type" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C838EF7D-3DC0-4520-9A00-0547CE6BBA2E}" uniqueName="4" name="Topic" queryTableFieldId="4" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{FF7F3BAF-DF1F-4AE9-98A0-8B87FF5D4B5C}" uniqueName="5" name="Likes" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{63F0AC61-B865-42D3-A192-EAF35AAF200D}" uniqueName="6" name="Comments" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{FB1217CA-C77A-4429-8938-AACC34AEF938}" uniqueName="7" name="Shares" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{1D709996-349D-4295-83C9-C4A53DB2D1C2}" uniqueName="8" name="Date" queryTableFieldId="8" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{1564BE40-6B57-4D72-998F-5BAEAE430821}" uniqueName="9" name="Engagement Score" queryTableFieldId="9" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{1D709996-349D-4295-83C9-C4A53DB2D1C2}" uniqueName="8" name="Date" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1564BE40-6B57-4D72-998F-5BAEAE430821}" uniqueName="9" name="Engagement Score" queryTableFieldId="9" dataDxfId="12">
       <calculatedColumnFormula>SUM(Dataset[[#This Row],[Likes]:[Shares]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E37ADF1-3E68-4560-9FEE-F90961991AC5}" uniqueName="10" name="Month Column" queryTableFieldId="10" dataDxfId="73">
+    <tableColumn id="10" xr3:uid="{3E37ADF1-3E68-4560-9FEE-F90961991AC5}" uniqueName="10" name="Month Column" queryTableFieldId="10" dataDxfId="11">
       <calculatedColumnFormula>TEXT(Dataset[[#This Row],[Date]],"mmm-yyyy")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0ED9D87A-4420-40CB-967D-900F2D0E9994}" uniqueName="11" name="Week Num" queryTableFieldId="11" dataDxfId="72">
+    <tableColumn id="11" xr3:uid="{0ED9D87A-4420-40CB-967D-900F2D0E9994}" uniqueName="11" name="Week Num" queryTableFieldId="11" dataDxfId="10">
       <calculatedColumnFormula>WEEKNUM(Dataset[[#This Row],[Date]], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{750518D1-8EB9-41A6-94E4-68A82373B25D}" uniqueName="12" name="weekday" queryTableFieldId="12" dataDxfId="71">
+    <tableColumn id="12" xr3:uid="{750518D1-8EB9-41A6-94E4-68A82373B25D}" uniqueName="12" name="weekday" queryTableFieldId="12" dataDxfId="9">
       <calculatedColumnFormula>TEXT(Dataset[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9234,16 +12072,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E23409B-51CC-4720-A40C-5FE74DDAA243}">
   <dimension ref="A2:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A94" zoomScale="88" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
@@ -9284,13 +12122,13 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>2190</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>380</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>112</v>
       </c>
     </row>
@@ -9298,13 +12136,13 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>1205</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>160</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>58</v>
       </c>
     </row>
@@ -9312,13 +12150,13 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>865</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>120</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>31</v>
       </c>
     </row>
@@ -9326,13 +12164,13 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>1355</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>203</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>70</v>
       </c>
     </row>
@@ -9340,13 +12178,13 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>1590</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>292</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>89</v>
       </c>
     </row>
@@ -9354,13 +12192,13 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>1860</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>272</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>81</v>
       </c>
     </row>
@@ -9368,13 +12206,13 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>1290</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>183</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>46</v>
       </c>
     </row>
@@ -9382,13 +12220,13 @@
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>10355</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>1610</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>487</v>
       </c>
     </row>
@@ -9420,7 +12258,7 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
         <v>2682</v>
       </c>
     </row>
@@ -9428,7 +12266,7 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18">
         <v>1971</v>
       </c>
     </row>
@@ -9436,7 +12274,7 @@
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
         <v>2213</v>
       </c>
     </row>
@@ -9444,7 +12282,7 @@
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>6866</v>
       </c>
     </row>
@@ -9465,7 +12303,7 @@
       <c r="A25" s="9">
         <v>45901</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>175</v>
       </c>
     </row>
@@ -9473,7 +12311,7 @@
       <c r="A26" s="9">
         <v>45902</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>240</v>
       </c>
     </row>
@@ -9481,7 +12319,7 @@
       <c r="A27" s="9">
         <v>45903</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>118</v>
       </c>
     </row>
@@ -9489,7 +12327,7 @@
       <c r="A28" s="9">
         <v>45904</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>213</v>
       </c>
     </row>
@@ -9497,7 +12335,7 @@
       <c r="A29" s="9">
         <v>45905</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>272</v>
       </c>
     </row>
@@ -9505,7 +12343,7 @@
       <c r="A30" s="9">
         <v>45906</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>365</v>
       </c>
     </row>
@@ -9513,7 +12351,7 @@
       <c r="A31" s="9">
         <v>45907</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>295</v>
       </c>
     </row>
@@ -9521,7 +12359,7 @@
       <c r="A32" s="9">
         <v>45908</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>198</v>
       </c>
     </row>
@@ -9529,7 +12367,7 @@
       <c r="A33" s="9">
         <v>45909</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="14">
         <v>227</v>
       </c>
     </row>
@@ -9537,7 +12375,7 @@
       <c r="A34" s="9">
         <v>45910</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="14">
         <v>142</v>
       </c>
     </row>
@@ -9545,7 +12383,7 @@
       <c r="A35" s="9">
         <v>45911</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="14">
         <v>187</v>
       </c>
     </row>
@@ -9553,7 +12391,7 @@
       <c r="A36" s="9">
         <v>45912</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="14">
         <v>259</v>
       </c>
     </row>
@@ -9561,7 +12399,7 @@
       <c r="A37" s="9">
         <v>45913</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>391</v>
       </c>
     </row>
@@ -9569,7 +12407,7 @@
       <c r="A38" s="9">
         <v>45914</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>322</v>
       </c>
     </row>
@@ -9577,7 +12415,7 @@
       <c r="A39" s="9">
         <v>45915</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>181</v>
       </c>
     </row>
@@ -9585,7 +12423,7 @@
       <c r="A40" s="9">
         <v>45916</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="14">
         <v>234</v>
       </c>
     </row>
@@ -9593,7 +12431,7 @@
       <c r="A41" s="9">
         <v>45917</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="14">
         <v>152</v>
       </c>
     </row>
@@ -9601,7 +12439,7 @@
       <c r="A42" s="9">
         <v>45918</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>207</v>
       </c>
     </row>
@@ -9609,7 +12447,7 @@
       <c r="A43" s="9">
         <v>45919</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>285</v>
       </c>
     </row>
@@ -9617,7 +12455,7 @@
       <c r="A44" s="9">
         <v>45920</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="14">
         <v>378</v>
       </c>
     </row>
@@ -9625,7 +12463,7 @@
       <c r="A45" s="9">
         <v>45921</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="14">
         <v>309</v>
       </c>
     </row>
@@ -9633,7 +12471,7 @@
       <c r="A46" s="9">
         <v>45922</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>195</v>
       </c>
     </row>
@@ -9641,7 +12479,7 @@
       <c r="A47" s="9">
         <v>45923</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>221</v>
       </c>
     </row>
@@ -9649,7 +12487,7 @@
       <c r="A48" s="9">
         <v>45924</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="14">
         <v>145</v>
       </c>
     </row>
@@ -9657,7 +12495,7 @@
       <c r="A49" s="9">
         <v>45925</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>200</v>
       </c>
     </row>
@@ -9665,7 +12503,7 @@
       <c r="A50" s="9">
         <v>45926</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>299</v>
       </c>
     </row>
@@ -9673,7 +12511,7 @@
       <c r="A51" s="9">
         <v>45927</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="14">
         <v>408</v>
       </c>
     </row>
@@ -9681,7 +12519,7 @@
       <c r="A52" s="9">
         <v>45928</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>335</v>
       </c>
     </row>
@@ -9689,7 +12527,7 @@
       <c r="A53" s="9">
         <v>45929</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="14">
         <v>188</v>
       </c>
     </row>
@@ -9697,7 +12535,7 @@
       <c r="A54" s="9">
         <v>45930</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="14">
         <v>241</v>
       </c>
     </row>
@@ -9705,7 +12543,7 @@
       <c r="A55" s="9">
         <v>45931</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>165</v>
       </c>
     </row>
@@ -9713,7 +12551,7 @@
       <c r="A56" s="9">
         <v>45932</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="14">
         <v>214</v>
       </c>
     </row>
@@ -9721,7 +12559,7 @@
       <c r="A57" s="9">
         <v>45933</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="14">
         <v>272</v>
       </c>
     </row>
@@ -9729,7 +12567,7 @@
       <c r="A58" s="9">
         <v>45934</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="14">
         <v>370</v>
       </c>
     </row>
@@ -9737,7 +12575,7 @@
       <c r="A59" s="9">
         <v>45935</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>297</v>
       </c>
     </row>
@@ -9745,7 +12583,7 @@
       <c r="A60" s="9">
         <v>45936</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="14">
         <v>203</v>
       </c>
     </row>
@@ -9753,7 +12591,7 @@
       <c r="A61" s="9">
         <v>45937</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="14">
         <v>228</v>
       </c>
     </row>
@@ -9761,7 +12599,7 @@
       <c r="A62" s="9">
         <v>45938</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="14">
         <v>153</v>
       </c>
     </row>
@@ -9769,7 +12607,7 @@
       <c r="A63" s="9">
         <v>45939</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="14">
         <v>194</v>
       </c>
     </row>
@@ -9777,7 +12615,7 @@
       <c r="A64" s="9">
         <v>45940</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>286</v>
       </c>
     </row>
@@ -9785,7 +12623,7 @@
       <c r="A65" s="9">
         <v>45941</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="14">
         <v>376</v>
       </c>
     </row>
@@ -9793,7 +12631,7 @@
       <c r="A66" s="9">
         <v>45942</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="14">
         <v>321</v>
       </c>
     </row>
@@ -9801,7 +12639,7 @@
       <c r="A67" s="9">
         <v>45943</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="14">
         <v>183</v>
       </c>
     </row>
@@ -9809,7 +12647,7 @@
       <c r="A68" s="9">
         <v>45944</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="14">
         <v>237</v>
       </c>
     </row>
@@ -9817,7 +12655,7 @@
       <c r="A69" s="9">
         <v>45945</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="14">
         <v>141</v>
       </c>
     </row>
@@ -9825,7 +12663,7 @@
       <c r="A70" s="9">
         <v>45946</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="14">
         <v>208</v>
       </c>
     </row>
@@ -9833,7 +12671,7 @@
       <c r="A71" s="9">
         <v>45947</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="14">
         <v>298</v>
       </c>
     </row>
@@ -9841,7 +12679,7 @@
       <c r="A72" s="9">
         <v>45948</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="14">
         <v>394</v>
       </c>
     </row>
@@ -9849,7 +12687,7 @@
       <c r="A73" s="9">
         <v>45949</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="14">
         <v>334</v>
       </c>
     </row>
@@ -9857,7 +12695,7 @@
       <c r="A74" s="9">
         <v>45950</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="14">
         <v>196</v>
       </c>
     </row>
@@ -9865,7 +12703,7 @@
       <c r="A75" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="14">
         <v>12452</v>
       </c>
     </row>
@@ -9886,7 +12724,7 @@
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="14">
         <v>2682</v>
       </c>
     </row>
@@ -9894,7 +12732,7 @@
       <c r="A80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="14">
         <v>1423</v>
       </c>
     </row>
@@ -9902,7 +12740,7 @@
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="14">
         <v>1016</v>
       </c>
     </row>
@@ -9910,7 +12748,7 @@
       <c r="A82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="14">
         <v>1628</v>
       </c>
     </row>
@@ -9918,7 +12756,7 @@
       <c r="A83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="14">
         <v>1971</v>
       </c>
     </row>
@@ -9926,7 +12764,7 @@
       <c r="A84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="14">
         <v>2213</v>
       </c>
     </row>
@@ -9934,7 +12772,7 @@
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="14">
         <v>1519</v>
       </c>
     </row>
@@ -9942,7 +12780,7 @@
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="14">
         <v>12452</v>
       </c>
     </row>
@@ -9969,13 +12807,13 @@
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="14">
         <v>2190</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="14">
         <v>380</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="14">
         <v>112</v>
       </c>
     </row>
@@ -9983,13 +12821,13 @@
       <c r="A91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="14">
         <v>1205</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="14">
         <v>160</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="14">
         <v>58</v>
       </c>
     </row>
@@ -9997,13 +12835,13 @@
       <c r="A92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="14">
         <v>865</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="14">
         <v>120</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="14">
         <v>31</v>
       </c>
     </row>
@@ -10011,13 +12849,13 @@
       <c r="A93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="14">
         <v>1355</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="14">
         <v>203</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="14">
         <v>70</v>
       </c>
     </row>
@@ -10025,13 +12863,13 @@
       <c r="A94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="14">
         <v>1590</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="14">
         <v>292</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="14">
         <v>89</v>
       </c>
     </row>
@@ -10039,13 +12877,13 @@
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="14">
         <v>1860</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="14">
         <v>272</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="14">
         <v>81</v>
       </c>
     </row>
@@ -10053,13 +12891,13 @@
       <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="14">
         <v>1290</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="14">
         <v>183</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="14">
         <v>46</v>
       </c>
     </row>
@@ -10067,13 +12905,13 @@
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="14">
         <v>10355</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="14">
         <v>1610</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="14">
         <v>487</v>
       </c>
     </row>
@@ -10099,87 +12937,87 @@
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="14">
         <v>30</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="14">
         <v>7382</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="14">
         <v>4</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="14">
         <v>1261</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="14">
         <v>5</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="14">
         <v>937</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="14">
         <v>5</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="14">
         <v>1163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="14">
         <v>4</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="14">
         <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="14">
         <v>4</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="14">
         <v>807</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="14">
         <v>4</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="14">
         <v>1115</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="14">
         <v>4</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="14">
         <v>1542</v>
       </c>
     </row>
@@ -10187,87 +13025,87 @@
       <c r="A109" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="14">
         <v>20</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="14">
         <v>5070</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="14">
         <v>3</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="14">
         <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="14">
         <v>3</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="14">
         <v>582</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="14">
         <v>2</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="14">
         <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="14">
         <v>3</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="14">
         <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="14">
         <v>3</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="14">
         <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="14">
         <v>3</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="14">
         <v>856</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="14">
         <v>3</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="14">
         <v>1140</v>
       </c>
     </row>
@@ -10275,39 +13113,39 @@
       <c r="A117" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="14">
         <v>50</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="14">
         <v>12452</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B27">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="lessThan">
       <formula>118</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B25:B75">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B27">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="lessThan">
       <formula>120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="top10" dxfId="26" priority="25" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="25" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A85">
-    <cfRule type="top10" dxfId="25" priority="20" rank="3"/>
-    <cfRule type="top10" dxfId="24" priority="23" rank="3"/>
-    <cfRule type="top10" dxfId="23" priority="24" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="20" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="23" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="24" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B79:B85">
-    <cfRule type="top10" dxfId="22" priority="17" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="17" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B90:B96">
     <cfRule type="colorScale" priority="16">
@@ -10346,7 +13184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A108">
-    <cfRule type="top10" dxfId="21" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="C102:C108">
     <cfRule type="dataBar" priority="8">
@@ -10419,6 +13257,735 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91AEB2E-7C35-499F-9CDA-9C88CEC501E8}">
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="20" max="20" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
+        <f>SUM(Pivots!C101)</f>
+        <v>7382</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7908A00F-A74A-407C-997D-03C3CFE45E4B}">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -10517,7 +14084,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L2" s="13" t="str">
+      <c r="L2" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -10559,7 +14126,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L3" s="13" t="str">
+      <c r="L3" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -10601,7 +14168,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L4" s="13" t="str">
+      <c r="L4" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -10643,7 +14210,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="L5" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -10685,7 +14252,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -10727,7 +14294,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -10769,7 +14336,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>36</v>
       </c>
-      <c r="L8" s="13" t="str">
+      <c r="L8" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -10811,7 +14378,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L9" s="13" t="str">
+      <c r="L9" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -10853,7 +14420,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L10" s="13" t="str">
+      <c r="L10" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -10895,7 +14462,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L11" s="13" t="str">
+      <c r="L11" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -10937,7 +14504,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L12" s="13" t="str">
+      <c r="L12" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -10979,7 +14546,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L13" s="13" t="str">
+      <c r="L13" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -11021,7 +14588,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L14" s="13" t="str">
+      <c r="L14" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -11063,7 +14630,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="13" t="str">
+      <c r="L15" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -11105,7 +14672,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L16" s="13" t="str">
+      <c r="L16" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -11147,7 +14714,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L17" s="13" t="str">
+      <c r="L17" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -11189,7 +14756,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L18" s="13" t="str">
+      <c r="L18" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -11231,7 +14798,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L19" s="13" t="str">
+      <c r="L19" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -11273,7 +14840,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L20" s="13" t="str">
+      <c r="L20" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -11315,7 +14882,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L21" s="13" t="str">
+      <c r="L21" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -11357,7 +14924,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>38</v>
       </c>
-      <c r="L22" s="13" t="str">
+      <c r="L22" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -11399,7 +14966,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L23" s="13" t="str">
+      <c r="L23" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -11441,7 +15008,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L24" s="13" t="str">
+      <c r="L24" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -11483,7 +15050,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L25" s="13" t="str">
+      <c r="L25" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -11525,7 +15092,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L26" s="13" t="str">
+      <c r="L26" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -11567,7 +15134,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L27" s="13" t="str">
+      <c r="L27" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -11609,7 +15176,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L28" s="13" t="str">
+      <c r="L28" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -11651,7 +15218,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>39</v>
       </c>
-      <c r="L29" s="13" t="str">
+      <c r="L29" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -11693,7 +15260,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L30" s="13" t="str">
+      <c r="L30" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -11735,7 +15302,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L31" s="13" t="str">
+      <c r="L31" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -11777,7 +15344,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L32" s="13" t="str">
+      <c r="L32" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -11819,7 +15386,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L33" s="13" t="str">
+      <c r="L33" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -11861,7 +15428,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L34" s="13" t="str">
+      <c r="L34" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -11903,7 +15470,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L35" s="13" t="str">
+      <c r="L35" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -11945,7 +15512,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>40</v>
       </c>
-      <c r="L36" s="13" t="str">
+      <c r="L36" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -11987,7 +15554,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L37" s="13" t="str">
+      <c r="L37" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -12029,7 +15596,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L38" s="13" t="str">
+      <c r="L38" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -12071,7 +15638,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L39" s="13" t="str">
+      <c r="L39" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -12113,7 +15680,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L40" s="13" t="str">
+      <c r="L40" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -12155,7 +15722,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L41" s="13" t="str">
+      <c r="L41" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -12197,7 +15764,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L42" s="13" t="str">
+      <c r="L42" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -12239,7 +15806,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>41</v>
       </c>
-      <c r="L43" s="13" t="str">
+      <c r="L43" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -12281,7 +15848,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L44" s="13" t="str">
+      <c r="L44" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
@@ -12323,7 +15890,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L45" s="13" t="str">
+      <c r="L45" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -12365,7 +15932,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L46" s="13" t="str">
+      <c r="L46" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -12407,7 +15974,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L47" s="13" t="str">
+      <c r="L47" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -12449,7 +16016,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L48" s="13" t="str">
+      <c r="L48" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Friday</v>
       </c>
@@ -12491,7 +16058,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L49" s="13" t="str">
+      <c r="L49" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -12533,7 +16100,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>42</v>
       </c>
-      <c r="L50" s="13" t="str">
+      <c r="L50" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -12575,7 +16142,7 @@
         <f>WEEKNUM(Dataset[[#This Row],[Date]], 2)</f>
         <v>43</v>
       </c>
-      <c r="L51" s="13" t="str">
+      <c r="L51" t="str">
         <f>TEXT(Dataset[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
